--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cd177-Pecam1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.542357666666667</v>
+        <v>2.503233333333334</v>
       </c>
       <c r="H2">
-        <v>4.627073</v>
+        <v>7.5097</v>
       </c>
       <c r="I2">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676208</v>
       </c>
       <c r="J2">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676207</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N2">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O2">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P2">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q2">
-        <v>625.0349844705268</v>
+        <v>1124.848793656378</v>
       </c>
       <c r="R2">
-        <v>5625.31486023474</v>
+        <v>10123.6391429074</v>
       </c>
       <c r="S2">
-        <v>0.168657665782608</v>
+        <v>0.9188310927427944</v>
       </c>
       <c r="T2">
-        <v>0.168657665782608</v>
+        <v>0.9188310927427941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.542357666666667</v>
+        <v>2.503233333333334</v>
       </c>
       <c r="H3">
-        <v>4.627073</v>
+        <v>7.5097</v>
       </c>
       <c r="I3">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676208</v>
       </c>
       <c r="J3">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676207</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>16.893533</v>
       </c>
       <c r="O3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P3">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q3">
-        <v>8.685290046545445</v>
+        <v>14.09615164112222</v>
       </c>
       <c r="R3">
-        <v>78.16761041890901</v>
+        <v>126.8653647701</v>
       </c>
       <c r="S3">
-        <v>0.002343614009280065</v>
+        <v>0.01151442086165145</v>
       </c>
       <c r="T3">
-        <v>0.002343614009280065</v>
+        <v>0.01151442086165145</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.542357666666667</v>
+        <v>2.503233333333334</v>
       </c>
       <c r="H4">
-        <v>4.627073</v>
+        <v>7.5097</v>
       </c>
       <c r="I4">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676208</v>
       </c>
       <c r="J4">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676207</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N4">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O4">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P4">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q4">
-        <v>3.021059661833889</v>
+        <v>19.29565180864444</v>
       </c>
       <c r="R4">
-        <v>27.189536956505</v>
+        <v>173.6608662778</v>
       </c>
       <c r="S4">
-        <v>0.0008151941625899908</v>
+        <v>0.01576162497262481</v>
       </c>
       <c r="T4">
-        <v>0.0008151941625899907</v>
+        <v>0.0157616249726248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.542357666666667</v>
+        <v>2.503233333333334</v>
       </c>
       <c r="H5">
-        <v>4.627073</v>
+        <v>7.5097</v>
       </c>
       <c r="I5">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676208</v>
       </c>
       <c r="J5">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676207</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N5">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P5">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q5">
-        <v>1.814059907345889</v>
+        <v>3.395028565377778</v>
       </c>
       <c r="R5">
-        <v>16.326539166113</v>
+        <v>30.5552570884</v>
       </c>
       <c r="S5">
-        <v>0.0004895007754197143</v>
+        <v>0.002773224120620791</v>
       </c>
       <c r="T5">
-        <v>0.0004895007754197141</v>
+        <v>0.00277322412062079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.542357666666667</v>
+        <v>2.503233333333334</v>
       </c>
       <c r="H6">
-        <v>4.627073</v>
+        <v>7.5097</v>
       </c>
       <c r="I6">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676208</v>
       </c>
       <c r="J6">
-        <v>0.1736642262104688</v>
+        <v>0.9574104874676207</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N6">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O6">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P6">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q6">
-        <v>5.033596837276333</v>
+        <v>10.44272514608889</v>
       </c>
       <c r="R6">
-        <v>45.302371535487</v>
+        <v>93.98452631480002</v>
       </c>
       <c r="S6">
-        <v>0.001358251480570968</v>
+        <v>0.008530124769929434</v>
       </c>
       <c r="T6">
-        <v>0.001358251480570968</v>
+        <v>0.008530124769929433</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>24</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>7.338905333333334</v>
+        <v>0.111354</v>
       </c>
       <c r="H7">
-        <v>22.016716</v>
+        <v>0.334062</v>
       </c>
       <c r="I7">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="J7">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>405.24646</v>
+        <v>449.3583473333333</v>
       </c>
       <c r="N7">
-        <v>1215.73938</v>
+        <v>1348.075042</v>
       </c>
       <c r="O7">
-        <v>0.971171031955694</v>
+        <v>0.959704436884883</v>
       </c>
       <c r="P7">
-        <v>0.9711710319556939</v>
+        <v>0.9597044368848828</v>
       </c>
       <c r="Q7">
-        <v>2974.065406608453</v>
+        <v>50.03784940895599</v>
       </c>
       <c r="R7">
-        <v>26766.58865947608</v>
+        <v>450.3406446806039</v>
       </c>
       <c r="S7">
-        <v>0.802513366173086</v>
+        <v>0.04087334414208867</v>
       </c>
       <c r="T7">
-        <v>0.8025133661730859</v>
+        <v>0.04087334414208867</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>25</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>7.338905333333334</v>
+        <v>0.111354</v>
       </c>
       <c r="H8">
-        <v>22.016716</v>
+        <v>0.334062</v>
       </c>
       <c r="I8">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="J8">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>16.893533</v>
       </c>
       <c r="O8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="P8">
-        <v>0.01349508796612936</v>
+        <v>0.01202662913387072</v>
       </c>
       <c r="Q8">
-        <v>41.32667981084756</v>
+        <v>0.627054157894</v>
       </c>
       <c r="R8">
-        <v>371.9401182976281</v>
+        <v>5.643487421046</v>
       </c>
       <c r="S8">
-        <v>0.0111514739568493</v>
+        <v>0.0005122082722192641</v>
       </c>
       <c r="T8">
-        <v>0.0111514739568493</v>
+        <v>0.0005122082722192639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,22 +968,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>7.338905333333334</v>
+        <v>0.111354</v>
       </c>
       <c r="H9">
-        <v>22.016716</v>
+        <v>0.334062</v>
       </c>
       <c r="I9">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="J9">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.958728333333333</v>
+        <v>7.708291333333332</v>
       </c>
       <c r="N9">
-        <v>5.876185</v>
+        <v>23.124874</v>
       </c>
       <c r="O9">
-        <v>0.004694082255041018</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="P9">
-        <v>0.004694082255041017</v>
+        <v>0.01646276615823874</v>
       </c>
       <c r="Q9">
-        <v>14.37492181205111</v>
+        <v>0.8583490731319998</v>
       </c>
       <c r="R9">
-        <v>129.37429630846</v>
+        <v>7.725141658187999</v>
       </c>
       <c r="S9">
-        <v>0.003878888092451028</v>
+        <v>0.0007011411856139375</v>
       </c>
       <c r="T9">
-        <v>0.003878888092451027</v>
+        <v>0.0007011411856139374</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>7.338905333333334</v>
+        <v>0.111354</v>
       </c>
       <c r="H10">
-        <v>22.016716</v>
+        <v>0.334062</v>
       </c>
       <c r="I10">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="J10">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.176160333333333</v>
+        <v>1.356257333333333</v>
       </c>
       <c r="N10">
-        <v>3.528481</v>
+        <v>4.068772</v>
       </c>
       <c r="O10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965574</v>
       </c>
       <c r="P10">
-        <v>0.002818662116551706</v>
+        <v>0.002896588408965573</v>
       </c>
       <c r="Q10">
-        <v>8.631729343155111</v>
+        <v>0.151024679096</v>
       </c>
       <c r="R10">
-        <v>77.68556408839601</v>
+        <v>1.359222111864</v>
       </c>
       <c r="S10">
-        <v>0.002329161341131992</v>
+        <v>0.0001233642883447837</v>
       </c>
       <c r="T10">
-        <v>0.002329161341131992</v>
+        <v>0.0001233642883447837</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>7.338905333333334</v>
+        <v>0.111354</v>
       </c>
       <c r="H11">
-        <v>22.016716</v>
+        <v>0.334062</v>
       </c>
       <c r="I11">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="J11">
-        <v>0.8263357737895313</v>
+        <v>0.04258951253237923</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.263573</v>
+        <v>4.171694666666667</v>
       </c>
       <c r="N11">
-        <v>9.790718999999999</v>
+        <v>12.515084</v>
       </c>
       <c r="O11">
-        <v>0.007821135706583939</v>
+        <v>0.008909579414042005</v>
       </c>
       <c r="P11">
-        <v>0.007821135706583937</v>
+        <v>0.008909579414042003</v>
       </c>
       <c r="Q11">
-        <v>23.95105329542266</v>
+        <v>0.464534887912</v>
       </c>
       <c r="R11">
-        <v>215.559479658804</v>
+        <v>4.180813991208</v>
       </c>
       <c r="S11">
-        <v>0.006462884226012972</v>
+        <v>0.0003794546441125699</v>
       </c>
       <c r="T11">
-        <v>0.00646288422601297</v>
+        <v>0.0003794546441125699</v>
       </c>
     </row>
   </sheetData>
